--- a/Павлодарская область.xlsx
+++ b/Павлодарская область.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KindYAK\Data Science\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D160659F-E4F8-4C75-AE04-A2FC91D5C644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -781,11 +787,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +855,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -895,7 +909,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,9 +941,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,6 +993,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1136,14 +1186,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HE9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:HE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:213">
+    <row r="1" spans="1:213" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1833,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:213">
+    <row r="2" spans="1:213" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4722</v>
       </c>
@@ -1825,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0.07692307692307693</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="P2">
-        <v>0.07692307692307693</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1855,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>356.5080796607223</v>
+        <v>356.50807966072227</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1957,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.2564102564102564</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="BH2">
-        <v>2.051282051282051</v>
+        <v>2.0512820512820511</v>
       </c>
       <c r="BI2">
-        <v>53.84615384615385</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="BJ2">
-        <v>28.71794871794872</v>
+        <v>28.717948717948719</v>
       </c>
       <c r="BK2">
-        <v>300.8974358974359</v>
+        <v>300.89743589743591</v>
       </c>
       <c r="BL2">
         <v>20</v>
@@ -1978,7 +2030,7 @@
         <v>226</v>
       </c>
       <c r="BN2">
-        <v>1.282051282051282</v>
+        <v>1.2820512820512819</v>
       </c>
       <c r="BO2" t="s">
         <v>227</v>
@@ -1993,16 +2045,16 @@
         <v>226</v>
       </c>
       <c r="BS2">
-        <v>0.1282051282051282</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="BT2">
-        <v>0.1282051282051282</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="BU2">
         <v>0.1165501165501166</v>
       </c>
       <c r="BV2">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="BW2">
         <v>6</v>
@@ -2104,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.1538461538461539</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="DE2">
         <v>0</v>
@@ -2125,10 +2177,10 @@
         <v>11</v>
       </c>
       <c r="DK2">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="DL2">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -2137,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.07692307692307693</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="DP2">
         <v>1</v>
@@ -2146,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.07692307692307693</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="DS2">
         <v>15</v>
@@ -2167,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.5333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="DZ2">
         <v>0.1333333333333333</v>
       </c>
       <c r="EA2">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="EB2">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="EC2">
         <v>0.2</v>
@@ -2185,13 +2237,13 @@
         <v>0.2</v>
       </c>
       <c r="EE2">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="EF2">
         <v>0.1333333333333333</v>
       </c>
       <c r="EG2">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="EH2">
         <v>0.1333333333333333</v>
@@ -2212,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="EO2">
         <v>0.2</v>
       </c>
       <c r="EP2">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="EQ2">
         <v>0</v>
@@ -2230,7 +2282,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="ET2">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="EU2">
         <v>0.2</v>
@@ -2248,28 +2300,28 @@
         <v>39</v>
       </c>
       <c r="EZ2">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="FA2">
-        <v>0.5384615384615384</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="FB2">
         <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.8974358974358975</v>
+        <v>0.89743589743589747</v>
       </c>
       <c r="FD2">
         <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.02564102564102564</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="FF2">
         <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.07692307692307693</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="FH2">
         <v>1</v>
@@ -2305,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="FT2">
-        <v>96.30769230769231</v>
+        <v>96.307692307692307</v>
       </c>
       <c r="FU2">
-        <v>0.9876336898395722</v>
+        <v>0.98763368983957223</v>
       </c>
       <c r="FV2" t="b">
         <v>0</v>
@@ -2362,34 +2414,34 @@
         <v>2.6</v>
       </c>
       <c r="GL2">
-        <v>0.00267379679144385</v>
+        <v>2.6737967914438501E-3</v>
       </c>
       <c r="GM2">
-        <v>0.9940828402366864</v>
+        <v>0.99408284023668636</v>
       </c>
       <c r="GN2">
         <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.1282051282051282</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="GP2">
-        <v>0.1538461538461539</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="GQ2">
-        <v>0.1282051282051282</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="GR2">
         <v>0.1025641025641026</v>
       </c>
       <c r="GS2">
-        <v>0.05128205128205128</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="GT2">
-        <v>0.05128205128205128</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="GU2">
-        <v>0.05128205128205128</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="GV2">
         <v>0.1025641025641026</v>
@@ -2398,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="GX2">
-        <v>0.07692307692307693</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="GY2">
         <v>0</v>
       </c>
       <c r="GZ2">
-        <v>0.08369098712446352</v>
+        <v>8.3690987124463517E-2</v>
       </c>
       <c r="HA2" t="s">
         <v>227</v>
       </c>
       <c r="HB2">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="HC2">
         <v>1</v>
@@ -2422,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:213">
+    <row r="3" spans="1:213" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4805</v>
       </c>
@@ -2466,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.07272727272727272</v>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="P3">
-        <v>0.07272727272727272</v>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2496,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>7.375569530502042</v>
+        <v>7.3755695305020419</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2601,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.090909090909091</v>
+        <v>1.0909090909090911</v>
       </c>
       <c r="BI3">
         <v>4.3</v>
       </c>
       <c r="BJ3">
-        <v>23.19545454545455</v>
+        <v>23.195454545454549</v>
       </c>
       <c r="BK3">
-        <v>30.33181818181818</v>
+        <v>30.331818181818178</v>
       </c>
       <c r="BL3">
         <v>620</v>
@@ -2619,7 +2671,7 @@
         <v>226</v>
       </c>
       <c r="BN3">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="BO3" t="s">
         <v>227</v>
@@ -2634,13 +2686,13 @@
         <v>226</v>
       </c>
       <c r="BS3">
-        <v>0.3545454545454546</v>
+        <v>0.35454545454545461</v>
       </c>
       <c r="BT3">
-        <v>0.3545454545454546</v>
+        <v>0.35454545454545461</v>
       </c>
       <c r="BU3">
-        <v>0.3545454545454546</v>
+        <v>0.35454545454545461</v>
       </c>
       <c r="BV3">
         <v>3.758169934640522</v>
@@ -2745,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.06363636363636363</v>
+        <v>6.363636363636363E-2</v>
       </c>
       <c r="DE3">
         <v>0</v>
@@ -2781,25 +2833,25 @@
         <v>0.2136363636363636</v>
       </c>
       <c r="DP3">
-        <v>0.2765957446808511</v>
+        <v>0.27659574468085107</v>
       </c>
       <c r="DQ3">
         <v>0.7021276595744681</v>
       </c>
       <c r="DR3">
-        <v>0.2363636363636364</v>
+        <v>0.23636363636363639</v>
       </c>
       <c r="DS3">
         <v>18</v>
       </c>
       <c r="DT3">
-        <v>0.05555555555555555</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="DU3">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="DV3">
-        <v>0.9444444444444444</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="DW3">
         <v>0</v>
@@ -2808,13 +2860,13 @@
         <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.05555555555555555</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="DZ3">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="EA3">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="EB3">
         <v>0.1111111111111111</v>
@@ -2829,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.05555555555555555</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="EG3">
-        <v>0.05555555555555555</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="EH3">
         <v>0.1111111111111111</v>
@@ -2841,7 +2893,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="EJ3">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="EK3">
         <v>18</v>
@@ -2877,10 +2929,10 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="EV3">
-        <v>0.05555555555555555</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="EW3">
-        <v>0.05555555555555555</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="EX3">
         <v>0.1111111111111111</v>
@@ -2889,10 +2941,10 @@
         <v>220</v>
       </c>
       <c r="EZ3">
-        <v>0.3363636363636364</v>
+        <v>0.33636363636363642</v>
       </c>
       <c r="FA3">
-        <v>0.6636363636363637</v>
+        <v>0.66363636363636369</v>
       </c>
       <c r="FB3">
         <v>0</v>
@@ -2907,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.004545454545454545</v>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="FG3">
-        <v>0.07727272727272727</v>
+        <v>7.7272727272727271E-2</v>
       </c>
       <c r="FH3">
         <v>1</v>
@@ -2919,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.06818181818181818</v>
+        <v>6.8181818181818177E-2</v>
       </c>
       <c r="FK3">
-        <v>0.4181818181818182</v>
+        <v>0.41818181818181821</v>
       </c>
       <c r="FL3">
-        <v>0.5818181818181818</v>
+        <v>0.58181818181818179</v>
       </c>
       <c r="FM3">
         <v>0</v>
@@ -2937,19 +2989,19 @@
         <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.1909090909090909</v>
+        <v>0.19090909090909089</v>
       </c>
       <c r="FQ3">
-        <v>0.759090909090909</v>
+        <v>0.75909090909090904</v>
       </c>
       <c r="FR3">
         <v>0.05</v>
       </c>
       <c r="FS3">
-        <v>0.04545454545454546</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="FT3">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="FU3">
         <v>1</v>
@@ -2997,16 +3049,16 @@
         <v>0</v>
       </c>
       <c r="GJ3">
-        <v>24.44444444444444</v>
+        <v>24.444444444444439</v>
       </c>
       <c r="GK3">
         <v>12.22222222222222</v>
       </c>
       <c r="GL3">
-        <v>0.001136738243284719</v>
+        <v>1.136738243284719E-3</v>
       </c>
       <c r="GM3">
-        <v>0.8928925619834711</v>
+        <v>0.89289256198347111</v>
       </c>
       <c r="GN3">
         <v>0</v>
@@ -3030,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="GU3">
-        <v>0.2318181818181818</v>
+        <v>0.23181818181818181</v>
       </c>
       <c r="GV3">
         <v>0.35</v>
@@ -3039,31 +3091,31 @@
         <v>0.2136363636363636</v>
       </c>
       <c r="GX3">
-        <v>0.2045454545454546</v>
+        <v>0.20454545454545461</v>
       </c>
       <c r="GY3">
-        <v>0.9256198347107438</v>
+        <v>0.92561983471074383</v>
       </c>
       <c r="GZ3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="HA3" t="s">
         <v>226</v>
       </c>
       <c r="HB3">
-        <v>0.2285714285714286</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="HC3">
         <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9787234042553191</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="HE3">
-        <v>0.007580804612560853</v>
+        <v>7.5808046125608528E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:213">
+    <row r="4" spans="1:213" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4807</v>
       </c>
@@ -3107,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0.09070548712206047</v>
+        <v>9.0705487122060474E-2</v>
       </c>
       <c r="P4">
-        <v>0.09070548712206047</v>
+        <v>9.0705487122060474E-2</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3122,7 +3174,7 @@
         <v>76</v>
       </c>
       <c r="T4">
-        <v>1.047619047619048</v>
+        <v>1.0476190476190479</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -3137,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>8.530483835622203</v>
+        <v>8.5304838356222028</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3239,19 +3291,19 @@
         <v>1</v>
       </c>
       <c r="BG4">
-        <v>0.0167973124300112</v>
+        <v>1.6797312430011199E-2</v>
       </c>
       <c r="BH4">
         <v>1.059910414333707</v>
       </c>
       <c r="BI4">
-        <v>16.61926091825308</v>
+        <v>16.619260918253079</v>
       </c>
       <c r="BJ4">
-        <v>49.8404255319149</v>
+        <v>49.840425531914903</v>
       </c>
       <c r="BK4">
-        <v>41.37178051511758</v>
+        <v>41.371780515117578</v>
       </c>
       <c r="BL4">
         <v>550</v>
@@ -3260,7 +3312,7 @@
         <v>226</v>
       </c>
       <c r="BN4">
-        <v>0.1343784994400896</v>
+        <v>0.13437849944008959</v>
       </c>
       <c r="BO4" t="s">
         <v>227</v>
@@ -3275,16 +3327,16 @@
         <v>226</v>
       </c>
       <c r="BS4">
-        <v>0.08790593505039193</v>
+        <v>8.7905935050391931E-2</v>
       </c>
       <c r="BT4">
-        <v>0.06465039667727238</v>
+        <v>6.4650396677272376E-2</v>
       </c>
       <c r="BU4">
-        <v>0.0846501596781552</v>
+        <v>8.4650159678155201E-2</v>
       </c>
       <c r="BV4">
-        <v>1.339884101788864</v>
+        <v>1.3398841017888641</v>
       </c>
       <c r="BW4">
         <v>32</v>
@@ -3383,10 +3435,10 @@
         <v>248</v>
       </c>
       <c r="DC4">
-        <v>0.006159014557670772</v>
+        <v>6.1590145576707724E-3</v>
       </c>
       <c r="DD4">
-        <v>0.07278835386338185</v>
+        <v>7.2788353863381852E-2</v>
       </c>
       <c r="DE4">
         <v>0</v>
@@ -3407,10 +3459,10 @@
         <v>67</v>
       </c>
       <c r="DK4">
-        <v>0.582089552238806</v>
+        <v>0.58208955223880599</v>
       </c>
       <c r="DL4">
-        <v>0.417910447761194</v>
+        <v>0.41791044776119401</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -3419,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.05543113101903695</v>
+        <v>5.5431131019036947E-2</v>
       </c>
       <c r="DP4">
         <v>0.6262626262626263</v>
       </c>
       <c r="DQ4">
-        <v>0.3737373737373738</v>
+        <v>0.37373737373737381</v>
       </c>
       <c r="DR4">
-        <v>0.02015677491601344</v>
+        <v>2.0156774916013441E-2</v>
       </c>
       <c r="DS4">
         <v>105</v>
@@ -3437,94 +3489,94 @@
         <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="DV4">
         <v>0.1714285714285714</v>
       </c>
       <c r="DW4">
-        <v>0.0761904761904762</v>
+        <v>7.6190476190476197E-2</v>
       </c>
       <c r="DX4">
         <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.2285714285714286</v>
+        <v>0.22857142857142859</v>
       </c>
       <c r="DZ4">
-        <v>0.05714285714285714</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="EA4">
-        <v>0.5047619047619047</v>
+        <v>0.50476190476190474</v>
       </c>
       <c r="EB4">
-        <v>0.3142857142857143</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="EC4">
-        <v>0.09523809523809523</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="ED4">
-        <v>0.08571428571428572</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="EE4">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="EF4">
-        <v>0.02857142857142857</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="EG4">
         <v>0.2</v>
       </c>
       <c r="EH4">
-        <v>0.1428571428571428</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="EI4">
-        <v>0.09523809523809523</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="EJ4">
-        <v>0.4666666666666667</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="EK4">
         <v>101</v>
       </c>
       <c r="EL4">
-        <v>0.0380952380952381</v>
+        <v>3.8095238095238099E-2</v>
       </c>
       <c r="EM4">
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="EO4">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="EP4">
         <v>0.1714285714285714</v>
       </c>
       <c r="EQ4">
-        <v>0.06666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="ER4">
-        <v>0.1904761904761905</v>
+        <v>0.19047619047619049</v>
       </c>
       <c r="ES4">
-        <v>0.1809523809523809</v>
+        <v>0.18095238095238089</v>
       </c>
       <c r="ET4">
         <v>0.2</v>
       </c>
       <c r="EU4">
-        <v>0.05714285714285714</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="EV4">
-        <v>0.05714285714285714</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="EW4">
-        <v>0.01904761904761905</v>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="EX4">
-        <v>0.02857142857142857</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="EY4">
         <v>1786</v>
@@ -3539,19 +3591,19 @@
         <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.7446808510638298</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="FD4">
-        <v>0.002799552071668533</v>
+        <v>2.7995520716685329E-3</v>
       </c>
       <c r="FE4">
-        <v>0.003359462486002239</v>
+        <v>3.359462486002239E-3</v>
       </c>
       <c r="FF4">
-        <v>0.00167973124300112</v>
+        <v>1.6797312430011199E-3</v>
       </c>
       <c r="FG4">
-        <v>0.07950727883538634</v>
+        <v>7.9507278835386344E-2</v>
       </c>
       <c r="FH4">
         <v>1</v>
@@ -3560,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.07950727883538634</v>
+        <v>7.9507278835386344E-2</v>
       </c>
       <c r="FK4">
         <v>0</v>
@@ -3578,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0005599104143337066</v>
+        <v>5.5991041433370661E-4</v>
       </c>
       <c r="FQ4">
-        <v>0.9944008958566629</v>
+        <v>0.99440089585666291</v>
       </c>
       <c r="FR4">
-        <v>0.005039193729003359</v>
+        <v>5.0391937290033594E-3</v>
       </c>
       <c r="FS4">
-        <v>0.03191489361702127</v>
+        <v>3.1914893617021267E-2</v>
       </c>
       <c r="FT4">
-        <v>51.17543859649123</v>
+        <v>51.175438596491233</v>
       </c>
       <c r="FU4">
-        <v>0.8132865690117599</v>
+        <v>0.81328656901175989</v>
       </c>
       <c r="FV4" t="b">
         <v>0</v>
@@ -3638,52 +3690,52 @@
         <v>0</v>
       </c>
       <c r="GJ4">
-        <v>26.65671641791045</v>
+        <v>26.656716417910449</v>
       </c>
       <c r="GK4">
-        <v>17.00952380952381</v>
+        <v>17.009523809523809</v>
       </c>
       <c r="GL4">
-        <v>0.002475758200949041</v>
+        <v>2.475758200949041E-3</v>
       </c>
       <c r="GM4">
-        <v>0.9997542162570898</v>
+        <v>0.99975421625708982</v>
       </c>
       <c r="GN4">
         <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.135498320268757</v>
+        <v>0.13549832026875699</v>
       </c>
       <c r="GP4">
         <v>0.1444568868980963</v>
       </c>
       <c r="GQ4">
-        <v>0.1270996640537514</v>
+        <v>0.12709966405375139</v>
       </c>
       <c r="GR4">
-        <v>0.09518477043673013</v>
+        <v>9.5184770436730126E-2</v>
       </c>
       <c r="GS4">
-        <v>0.08286674132138858</v>
+        <v>8.2866741321388576E-2</v>
       </c>
       <c r="GT4">
-        <v>0.07278835386338185</v>
+        <v>7.2788353863381852E-2</v>
       </c>
       <c r="GU4">
-        <v>0.07334826427771557</v>
+        <v>7.3348264277715569E-2</v>
       </c>
       <c r="GV4">
-        <v>0.06270996640537514</v>
+        <v>6.2709966405375142E-2</v>
       </c>
       <c r="GW4">
-        <v>0.01791713325867861</v>
+        <v>1.7917133258678612E-2</v>
       </c>
       <c r="GX4">
-        <v>0.02967525195968645</v>
+        <v>2.9675251959686452E-2</v>
       </c>
       <c r="GY4">
-        <v>0.05248415572657283</v>
+        <v>5.2484155726572827E-2</v>
       </c>
       <c r="GZ4">
         <v>1.275714285714286</v>
@@ -3692,7 +3744,7 @@
         <v>226</v>
       </c>
       <c r="HB4">
-        <v>0.2195121951219512</v>
+        <v>0.21951219512195119</v>
       </c>
       <c r="HC4">
         <v>1</v>
@@ -3704,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:213">
+    <row r="5" spans="1:213" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4812</v>
       </c>
@@ -3748,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03464566929133858</v>
+        <v>3.4645669291338582E-2</v>
       </c>
       <c r="P5">
-        <v>0.02362204724409449</v>
+        <v>2.3622047244094491E-2</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -3778,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>7.431406240106527</v>
+        <v>7.4314062401065266</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3874,25 +3926,25 @@
         <v>1</v>
       </c>
       <c r="BE5">
-        <v>86.09999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="BF5">
         <v>1</v>
       </c>
       <c r="BG5">
-        <v>0.03149606299212598</v>
+        <v>3.1496062992125977E-2</v>
       </c>
       <c r="BH5">
-        <v>1.100787401574803</v>
+        <v>1.1007874015748029</v>
       </c>
       <c r="BI5">
-        <v>18.55590551181102</v>
+        <v>18.555905511811019</v>
       </c>
       <c r="BJ5">
-        <v>34.48661417322835</v>
+        <v>34.486614173228347</v>
       </c>
       <c r="BK5">
-        <v>80.18267716535433</v>
+        <v>80.182677165354335</v>
       </c>
       <c r="BL5">
         <v>726</v>
@@ -3919,7 +3971,7 @@
         <v>0.2283464566929134</v>
       </c>
       <c r="BT5">
-        <v>0.1392662455654582</v>
+        <v>0.13926624556545819</v>
       </c>
       <c r="BU5">
         <v>0.2145452972224626</v>
@@ -3982,7 +4034,7 @@
         <v>5866.5</v>
       </c>
       <c r="CO5">
-        <v>2363.7</v>
+        <v>2363.6999999999998</v>
       </c>
       <c r="CP5" t="s">
         <v>240</v>
@@ -4024,10 +4076,10 @@
         <v>253</v>
       </c>
       <c r="DC5">
-        <v>0.01732283464566929</v>
+        <v>1.7322834645669291E-2</v>
       </c>
       <c r="DD5">
-        <v>0.01732283464566929</v>
+        <v>1.7322834645669291E-2</v>
       </c>
       <c r="DE5">
         <v>2</v>
@@ -4060,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.03937007874015748</v>
+        <v>3.937007874015748E-2</v>
       </c>
       <c r="DP5">
         <v>0.12</v>
@@ -4069,13 +4121,13 @@
         <v>0.84</v>
       </c>
       <c r="DR5">
-        <v>0.03779527559055118</v>
+        <v>3.7795275590551181E-2</v>
       </c>
       <c r="DS5">
         <v>56</v>
       </c>
       <c r="DT5">
-        <v>0.08928571428571429</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="DU5">
         <v>0.875</v>
@@ -4084,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.05357142857142857</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="DX5">
         <v>0</v>
@@ -4093,7 +4145,7 @@
         <v>0.1964285714285714</v>
       </c>
       <c r="DZ5">
-        <v>0.08928571428571429</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="EA5">
         <v>0.7142857142857143</v>
@@ -4105,22 +4157,22 @@
         <v>0.125</v>
       </c>
       <c r="ED5">
-        <v>0.03571428571428571</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="EE5">
-        <v>0.03571428571428571</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="EF5">
-        <v>0.03571428571428571</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="EG5">
-        <v>0.1428571428571428</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="EH5">
-        <v>0.05357142857142857</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="EI5">
-        <v>0.07142857142857142</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="EJ5">
         <v>0.6607142857142857</v>
@@ -4129,13 +4181,13 @@
         <v>55</v>
       </c>
       <c r="EL5">
-        <v>0.01785714285714286</v>
+        <v>1.785714285714286E-2</v>
       </c>
       <c r="EM5">
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01785714285714286</v>
+        <v>1.785714285714286E-2</v>
       </c>
       <c r="EO5">
         <v>0.1071428571428571</v>
@@ -4144,7 +4196,7 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="EQ5">
-        <v>0.08928571428571429</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="ER5">
         <v>0.1964285714285714</v>
@@ -4159,40 +4211,40 @@
         <v>0.1964285714285714</v>
       </c>
       <c r="EV5">
-        <v>0.07142857142857142</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="EW5">
-        <v>0.03571428571428571</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="EX5">
-        <v>0.01785714285714286</v>
+        <v>1.785714285714286E-2</v>
       </c>
       <c r="EY5">
         <v>635</v>
       </c>
       <c r="EZ5">
-        <v>0.4881889763779528</v>
+        <v>0.48818897637795278</v>
       </c>
       <c r="FA5">
-        <v>0.5118110236220472</v>
+        <v>0.51181102362204722</v>
       </c>
       <c r="FB5">
         <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.9937007874015747</v>
+        <v>0.99370078740157475</v>
       </c>
       <c r="FD5">
-        <v>0.001574803149606299</v>
+        <v>1.574803149606299E-3</v>
       </c>
       <c r="FE5">
-        <v>0.001574803149606299</v>
+        <v>1.574803149606299E-3</v>
       </c>
       <c r="FF5">
         <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.03307086614173228</v>
+        <v>3.3070866141732283E-2</v>
       </c>
       <c r="FH5">
         <v>1</v>
@@ -4201,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.03937007874015748</v>
+        <v>3.937007874015748E-2</v>
       </c>
       <c r="FK5">
         <v>0</v>
@@ -4222,19 +4274,19 @@
         <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.9984251968503937</v>
+        <v>0.99842519685039366</v>
       </c>
       <c r="FR5">
-        <v>0.001574803149606299</v>
+        <v>1.574803149606299E-3</v>
       </c>
       <c r="FS5">
-        <v>0.04724409448818898</v>
+        <v>4.7244094488188983E-2</v>
       </c>
       <c r="FT5">
-        <v>62.51666666666667</v>
+        <v>62.516666666666673</v>
       </c>
       <c r="FU5">
-        <v>0.4029148555356686</v>
+        <v>0.40291485553566858</v>
       </c>
       <c r="FV5" t="b">
         <v>0</v>
@@ -4285,22 +4337,22 @@
         <v>11.33928571428571</v>
       </c>
       <c r="GL5">
-        <v>0.001875053268558766</v>
+        <v>1.8750532685587659E-3</v>
       </c>
       <c r="GM5">
-        <v>0.9994419988839978</v>
+        <v>0.99944199888399776</v>
       </c>
       <c r="GN5">
         <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.04409448818897638</v>
+        <v>4.4094488188976377E-2</v>
       </c>
       <c r="GP5">
-        <v>0.1259842519685039</v>
+        <v>0.12598425196850391</v>
       </c>
       <c r="GQ5">
-        <v>0.1496062992125984</v>
+        <v>0.14960629921259841</v>
       </c>
       <c r="GR5">
         <v>0.1653543307086614</v>
@@ -4309,22 +4361,22 @@
         <v>0.1228346456692913</v>
       </c>
       <c r="GT5">
-        <v>0.08188976377952756</v>
+        <v>8.1889763779527558E-2</v>
       </c>
       <c r="GU5">
-        <v>0.06929133858267716</v>
+        <v>6.9291338582677164E-2</v>
       </c>
       <c r="GV5">
-        <v>0.08346456692913386</v>
+        <v>8.3464566929133857E-2</v>
       </c>
       <c r="GW5">
-        <v>0.02992125984251968</v>
+        <v>2.9921259842519681E-2</v>
       </c>
       <c r="GX5">
-        <v>0.08661417322834646</v>
+        <v>8.6614173228346455E-2</v>
       </c>
       <c r="GY5">
-        <v>0.0156860313720627</v>
+        <v>1.56860313720627E-2</v>
       </c>
       <c r="GZ5">
         <v>1.27</v>
@@ -4333,7 +4385,7 @@
         <v>226</v>
       </c>
       <c r="HB5">
-        <v>0.3653846153846154</v>
+        <v>0.36538461538461542</v>
       </c>
       <c r="HC5">
         <v>1</v>
@@ -4342,10 +4394,10 @@
         <v>0.96</v>
       </c>
       <c r="HE5">
-        <v>0.06633204035990745</v>
+        <v>6.6332040359907446E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:213">
+    <row r="6" spans="1:213" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4814</v>
       </c>
@@ -4419,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>4.433628103054122</v>
+        <v>4.4336281030541222</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -4521,19 +4573,19 @@
         <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.0660377358490566</v>
+        <v>6.6037735849056603E-2</v>
       </c>
       <c r="BH6">
         <v>1.52122641509434</v>
       </c>
       <c r="BI6">
-        <v>26.74528301886792</v>
+        <v>26.745283018867919</v>
       </c>
       <c r="BJ6">
-        <v>36.93396226415094</v>
+        <v>36.933962264150942</v>
       </c>
       <c r="BK6">
-        <v>68.31603773584905</v>
+        <v>68.316037735849051</v>
       </c>
       <c r="BL6">
         <v>236</v>
@@ -4542,7 +4594,7 @@
         <v>226</v>
       </c>
       <c r="BN6">
-        <v>0.5188679245283019</v>
+        <v>0.51886792452830188</v>
       </c>
       <c r="BO6" t="s">
         <v>227</v>
@@ -4557,13 +4609,13 @@
         <v>226</v>
       </c>
       <c r="BS6">
-        <v>0.4127358490566038</v>
+        <v>0.41273584905660382</v>
       </c>
       <c r="BT6">
-        <v>0.4127358490566038</v>
+        <v>0.41273584905660382</v>
       </c>
       <c r="BU6">
-        <v>0.3820754716981132</v>
+        <v>0.38207547169811318</v>
       </c>
       <c r="BV6">
         <v>3.375</v>
@@ -4665,7 +4717,7 @@
         <v>253</v>
       </c>
       <c r="DC6">
-        <v>0.01179245283018868</v>
+        <v>1.179245283018868E-2</v>
       </c>
       <c r="DD6">
         <v>1</v>
@@ -4701,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.09905660377358491</v>
+        <v>9.9056603773584911E-2</v>
       </c>
       <c r="DP6">
         <v>0.2857142857142857</v>
@@ -4710,7 +4762,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="DR6">
-        <v>0.0660377358490566</v>
+        <v>6.6037735849056603E-2</v>
       </c>
       <c r="DS6">
         <v>48</v>
@@ -4719,7 +4771,7 @@
         <v>0.1041666666666667</v>
       </c>
       <c r="DU6">
-        <v>0.5208333333333334</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="DV6">
         <v>1</v>
@@ -4734,10 +4786,10 @@
         <v>0.625</v>
       </c>
       <c r="DZ6">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="EA6">
-        <v>0.4791666666666667</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="EB6">
         <v>0.1041666666666667</v>
@@ -4752,13 +4804,13 @@
         <v>0.3125</v>
       </c>
       <c r="EF6">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="EG6">
-        <v>0.1458333333333333</v>
+        <v>0.14583333333333329</v>
       </c>
       <c r="EH6">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="EI6">
         <v>0.1041666666666667</v>
@@ -4776,37 +4828,37 @@
         <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="EO6">
-        <v>0.2291666666666667</v>
+        <v>0.22916666666666671</v>
       </c>
       <c r="EP6">
-        <v>0.1458333333333333</v>
+        <v>0.14583333333333329</v>
       </c>
       <c r="EQ6">
         <v>0.125</v>
       </c>
       <c r="ER6">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="ES6">
         <v>0.125</v>
       </c>
       <c r="ET6">
-        <v>0.1458333333333333</v>
+        <v>0.14583333333333329</v>
       </c>
       <c r="EU6">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="EV6">
-        <v>0.02083333333333333</v>
+        <v>2.0833333333333329E-2</v>
       </c>
       <c r="EW6">
         <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.04166666666666666</v>
+        <v>4.1666666666666657E-2</v>
       </c>
       <c r="EY6">
         <v>424</v>
@@ -4824,7 +4876,7 @@
         <v>0.714622641509434</v>
       </c>
       <c r="FD6">
-        <v>0.002358490566037736</v>
+        <v>2.3584905660377362E-3</v>
       </c>
       <c r="FE6">
         <v>0</v>
@@ -4842,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.002358490566037736</v>
+        <v>2.3584905660377362E-3</v>
       </c>
       <c r="FK6">
         <v>0</v>
@@ -4860,22 +4912,22 @@
         <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.002358490566037736</v>
+        <v>2.3584905660377362E-3</v>
       </c>
       <c r="FQ6">
-        <v>0.9976415094339622</v>
+        <v>0.99764150943396224</v>
       </c>
       <c r="FR6">
         <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.06839622641509434</v>
+        <v>6.8396226415094338E-2</v>
       </c>
       <c r="FT6">
         <v>37.03448275862069</v>
       </c>
       <c r="FU6">
-        <v>0.6293352601156069</v>
+        <v>0.62933526011560692</v>
       </c>
       <c r="FV6" t="b">
         <v>0</v>
@@ -4920,16 +4972,16 @@
         <v>0</v>
       </c>
       <c r="GJ6">
-        <v>23.55555555555556</v>
+        <v>23.555555555555561</v>
       </c>
       <c r="GK6">
-        <v>8.833333333333334</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="GL6">
-        <v>0.004335260115606936</v>
+        <v>4.335260115606936E-3</v>
       </c>
       <c r="GM6">
-        <v>0.9487362050551797</v>
+        <v>0.94873620505517975</v>
       </c>
       <c r="GN6">
         <v>0</v>
@@ -4947,34 +4999,34 @@
         <v>0.2216981132075472</v>
       </c>
       <c r="GS6">
-        <v>0.2287735849056604</v>
+        <v>0.22877358490566041</v>
       </c>
       <c r="GT6">
         <v>0.1650943396226415</v>
       </c>
       <c r="GU6">
-        <v>0.1179245283018868</v>
+        <v>0.11792452830188679</v>
       </c>
       <c r="GV6">
         <v>0.1132075471698113</v>
       </c>
       <c r="GW6">
-        <v>0.06367924528301887</v>
+        <v>6.3679245283018868E-2</v>
       </c>
       <c r="GX6">
-        <v>0.08962264150943396</v>
+        <v>8.9622641509433956E-2</v>
       </c>
       <c r="GY6">
-        <v>0.01175768734425064</v>
+        <v>1.1757687344250639E-2</v>
       </c>
       <c r="GZ6">
-        <v>0.848</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="HA6" t="s">
         <v>226</v>
       </c>
       <c r="HB6">
-        <v>0.2307692307692308</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="HC6">
         <v>0.96</v>
@@ -4983,10 +5035,10 @@
         <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.01020492928613961</v>
+        <v>1.020492928613961E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:213">
+    <row r="7" spans="1:213" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4816</v>
       </c>
@@ -5030,10 +5082,10 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01408450704225352</v>
+        <v>1.408450704225352E-2</v>
       </c>
       <c r="P7">
-        <v>0.01056338028169014</v>
+        <v>1.0563380281690141E-2</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5045,7 +5097,7 @@
         <v>23</v>
       </c>
       <c r="T7">
-        <v>1.272727272727273</v>
+        <v>1.2727272727272729</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -5162,19 +5214,19 @@
         <v>1</v>
       </c>
       <c r="BG7">
-        <v>0.1408450704225352</v>
+        <v>0.14084507042253519</v>
       </c>
       <c r="BH7">
         <v>1.221830985915493</v>
       </c>
       <c r="BI7">
-        <v>12.88028169014085</v>
+        <v>12.880281690140849</v>
       </c>
       <c r="BJ7">
-        <v>35.86971830985915</v>
+        <v>35.869718309859152</v>
       </c>
       <c r="BK7">
-        <v>72.55985915492958</v>
+        <v>72.559859154929583</v>
       </c>
       <c r="BL7">
         <v>55</v>
@@ -5198,16 +5250,16 @@
         <v>226</v>
       </c>
       <c r="BS7">
-        <v>0.3838028169014084</v>
+        <v>0.38380281690140838</v>
       </c>
       <c r="BT7">
-        <v>0.2887012339523869</v>
+        <v>0.28870123395238689</v>
       </c>
       <c r="BU7">
-        <v>0.3668203913747974</v>
+        <v>0.36682039137479738</v>
       </c>
       <c r="BV7">
-        <v>3.151515151515151</v>
+        <v>3.1515151515151509</v>
       </c>
       <c r="BW7">
         <v>4</v>
@@ -5306,10 +5358,10 @@
         <v>253</v>
       </c>
       <c r="DC7">
-        <v>0.04225352112676056</v>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="DD7">
-        <v>0.09507042253521127</v>
+        <v>9.5070422535211266E-2</v>
       </c>
       <c r="DE7">
         <v>2</v>
@@ -5342,25 +5394,25 @@
         <v>0</v>
       </c>
       <c r="DO7">
-        <v>0.2007042253521127</v>
+        <v>0.20070422535211269</v>
       </c>
       <c r="DP7">
-        <v>0.08771929824561403</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="DQ7">
-        <v>0.9122807017543859</v>
+        <v>0.91228070175438591</v>
       </c>
       <c r="DR7">
-        <v>0.1549295774647887</v>
+        <v>0.15492957746478869</v>
       </c>
       <c r="DS7">
         <v>33</v>
       </c>
       <c r="DT7">
-        <v>0.06060606060606061</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="DU7">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="DV7">
         <v>1</v>
@@ -5372,16 +5424,16 @@
         <v>0</v>
       </c>
       <c r="DY7">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="DZ7">
         <v>0.1818181818181818</v>
       </c>
       <c r="EA7">
-        <v>0.696969696969697</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="EB7">
-        <v>0.06060606060606061</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="EC7">
         <v>0.1212121212121212</v>
@@ -5390,22 +5442,22 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="EE7">
-        <v>0.0303030303030303</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="EF7">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="EG7">
-        <v>0.1515151515151515</v>
+        <v>0.15151515151515149</v>
       </c>
       <c r="EH7">
-        <v>0.06060606060606061</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="EI7">
         <v>0.1212121212121212</v>
       </c>
       <c r="EJ7">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="EK7">
         <v>33</v>
@@ -5417,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="EN7">
-        <v>0.0303030303030303</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="EO7">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="EP7">
         <v>0.1818181818181818</v>
@@ -5429,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="ER7">
-        <v>0.303030303030303</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="ES7">
-        <v>0.1515151515151515</v>
+        <v>0.15151515151515149</v>
       </c>
       <c r="ET7">
         <v>0.2121212121212121</v>
@@ -5447,7 +5499,7 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="EX7">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="EY7">
         <v>284</v>
@@ -5471,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>0.00352112676056338</v>
+        <v>3.5211267605633799E-3</v>
       </c>
       <c r="FG7">
-        <v>0.0352112676056338</v>
+        <v>3.5211267605633798E-2</v>
       </c>
       <c r="FH7">
         <v>1</v>
@@ -5483,13 +5535,13 @@
         <v>1</v>
       </c>
       <c r="FJ7">
-        <v>0.0352112676056338</v>
+        <v>3.5211267605633798E-2</v>
       </c>
       <c r="FK7">
-        <v>0.4295774647887324</v>
+        <v>0.42957746478873238</v>
       </c>
       <c r="FL7">
-        <v>0.5704225352112676</v>
+        <v>0.57042253521126762</v>
       </c>
       <c r="FM7">
         <v>0</v>
@@ -5507,10 +5559,10 @@
         <v>0.823943661971831</v>
       </c>
       <c r="FR7">
-        <v>0.07394366197183098</v>
+        <v>7.3943661971830985E-2</v>
       </c>
       <c r="FS7">
-        <v>0.07746478873239436</v>
+        <v>7.746478873239436E-2</v>
       </c>
       <c r="FT7">
         <v>53</v>
@@ -5561,16 +5613,16 @@
         <v>0</v>
       </c>
       <c r="GJ7">
-        <v>23.66666666666667</v>
+        <v>23.666666666666671</v>
       </c>
       <c r="GK7">
-        <v>8.606060606060606</v>
+        <v>8.6060606060606055</v>
       </c>
       <c r="GL7">
-        <v>0.004008600269669473</v>
+        <v>4.0086002696694727E-3</v>
       </c>
       <c r="GM7">
-        <v>0.9690041658401111</v>
+        <v>0.96900416584011106</v>
       </c>
       <c r="GN7">
         <v>0</v>
@@ -5591,25 +5643,25 @@
         <v>0</v>
       </c>
       <c r="GT7">
-        <v>0.1690140845070423</v>
+        <v>0.16901408450704231</v>
       </c>
       <c r="GU7">
-        <v>0.2711267605633803</v>
+        <v>0.27112676056338031</v>
       </c>
       <c r="GV7">
-        <v>0.2253521126760563</v>
+        <v>0.22535211267605629</v>
       </c>
       <c r="GW7">
         <v>0.1654929577464789</v>
       </c>
       <c r="GX7">
-        <v>0.1690140845070423</v>
+        <v>0.16901408450704231</v>
       </c>
       <c r="GY7">
         <v>0.859375</v>
       </c>
       <c r="GZ7">
-        <v>0.9466666666666667</v>
+        <v>0.94666666666666666</v>
       </c>
       <c r="HA7" t="s">
         <v>226</v>
@@ -5624,10 +5676,10 @@
         <v>1</v>
       </c>
       <c r="HE7">
-        <v>0.03979922421594448</v>
+        <v>3.9799224215944479E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:213">
+    <row r="8" spans="1:213" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4831</v>
       </c>
@@ -5701,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>8.161102048723102</v>
+        <v>8.1611020487231016</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -5803,19 +5855,19 @@
         <v>1</v>
       </c>
       <c r="BG8">
-        <v>0.07017543859649122</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="BH8">
-        <v>1.157894736842105</v>
+        <v>1.1578947368421051</v>
       </c>
       <c r="BI8">
-        <v>21.47719298245614</v>
+        <v>21.477192982456138</v>
       </c>
       <c r="BJ8">
-        <v>32.92982456140351</v>
+        <v>32.929824561403507</v>
       </c>
       <c r="BK8">
-        <v>65.90175438596491</v>
+        <v>65.901754385964907</v>
       </c>
       <c r="BL8">
         <v>469</v>
@@ -5824,7 +5876,7 @@
         <v>226</v>
       </c>
       <c r="BN8">
-        <v>0.4842105263157895</v>
+        <v>0.48421052631578948</v>
       </c>
       <c r="BO8" t="s">
         <v>227</v>
@@ -5839,13 +5891,13 @@
         <v>226</v>
       </c>
       <c r="BS8">
-        <v>0.4175438596491228</v>
+        <v>0.41754385964912277</v>
       </c>
       <c r="BT8">
-        <v>0.4175438596491228</v>
+        <v>0.41754385964912277</v>
       </c>
       <c r="BU8">
-        <v>0.4105263157894737</v>
+        <v>0.41052631578947368</v>
       </c>
       <c r="BV8">
         <v>3.65625</v>
@@ -5947,10 +5999,10 @@
         <v>253</v>
       </c>
       <c r="DC8">
-        <v>0.04210526315789474</v>
+        <v>4.2105263157894743E-2</v>
       </c>
       <c r="DD8">
-        <v>0.04210526315789474</v>
+        <v>4.2105263157894743E-2</v>
       </c>
       <c r="DE8">
         <v>0</v>
@@ -6034,7 +6086,7 @@
         <v>0.34375</v>
       </c>
       <c r="EF8">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="EG8">
         <v>0.21875</v>
@@ -6043,7 +6095,7 @@
         <v>0.21875</v>
       </c>
       <c r="EI8">
-        <v>0.03125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="EJ8">
         <v>0.125</v>
@@ -6052,7 +6104,7 @@
         <v>30</v>
       </c>
       <c r="EL8">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="EM8">
         <v>0</v>
@@ -6070,16 +6122,16 @@
         <v>0.1875</v>
       </c>
       <c r="ER8">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="ES8">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="ET8">
-        <v>0.03125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="EU8">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="EV8">
         <v>0</v>
@@ -6088,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="EX8">
-        <v>0.03125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="EY8">
         <v>285</v>
@@ -6106,7 +6158,7 @@
         <v>0.6596491228070176</v>
       </c>
       <c r="FD8">
-        <v>0.003508771929824561</v>
+        <v>3.508771929824561E-3</v>
       </c>
       <c r="FE8">
         <v>0</v>
@@ -6118,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="FH8">
-        <v>0.9403508771929825</v>
+        <v>0.94035087719298249</v>
       </c>
       <c r="FI8">
         <v>1</v>
@@ -6142,22 +6194,22 @@
         <v>0</v>
       </c>
       <c r="FP8">
-        <v>0.03508771929824561</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="FQ8">
-        <v>0.9438596491228071</v>
+        <v>0.94385964912280707</v>
       </c>
       <c r="FR8">
-        <v>0.02105263157894737</v>
+        <v>2.1052631578947371E-2</v>
       </c>
       <c r="FS8">
-        <v>0.05964912280701754</v>
+        <v>5.9649122807017542E-2</v>
       </c>
       <c r="FT8">
-        <v>63.88235294117647</v>
+        <v>63.882352941176471</v>
       </c>
       <c r="FU8">
-        <v>0.4187600544487068</v>
+        <v>0.41876005444870679</v>
       </c>
       <c r="FV8" t="b">
         <v>0</v>
@@ -6208,7 +6260,7 @@
         <v>8.90625</v>
       </c>
       <c r="GL8">
-        <v>0.003341170647197129</v>
+        <v>3.3411706471971289E-3</v>
       </c>
       <c r="GM8">
         <v>0</v>
@@ -6232,25 +6284,25 @@
         <v>0</v>
       </c>
       <c r="GT8">
-        <v>0.1859649122807017</v>
+        <v>0.18596491228070169</v>
       </c>
       <c r="GU8">
         <v>0.2350877192982456</v>
       </c>
       <c r="GV8">
-        <v>0.2035087719298246</v>
+        <v>0.20350877192982461</v>
       </c>
       <c r="GW8">
         <v>0.2350877192982456</v>
       </c>
       <c r="GX8">
-        <v>0.1403508771929824</v>
+        <v>0.14035087719298239</v>
       </c>
       <c r="GY8">
-        <v>0.3487226839027392</v>
+        <v>0.34872268390273919</v>
       </c>
       <c r="GZ8">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="HA8" t="s">
         <v>226</v>
@@ -6265,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="HE8">
-        <v>0.05969883632391672</v>
+        <v>5.9698836323916718E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:213">
+    <row r="9" spans="1:213" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4833</v>
       </c>
@@ -6312,10 +6364,10 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>0.05965909090909091</v>
+        <v>5.9659090909090912E-2</v>
       </c>
       <c r="P9">
-        <v>0.05965909090909091</v>
+        <v>5.9659090909090912E-2</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -6342,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>6.058071191467017</v>
+        <v>6.0580711914670173</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -6444,10 +6496,10 @@
         <v>1</v>
       </c>
       <c r="BG9">
-        <v>0.04261363636363636</v>
+        <v>4.261363636363636E-2</v>
       </c>
       <c r="BH9">
-        <v>1.127840909090909</v>
+        <v>1.1278409090909089</v>
       </c>
       <c r="BI9">
         <v>8.125</v>
@@ -6465,7 +6517,7 @@
         <v>226</v>
       </c>
       <c r="BN9">
-        <v>0.2272727272727273</v>
+        <v>0.22727272727272729</v>
       </c>
       <c r="BO9" t="s">
         <v>227</v>
@@ -6480,16 +6532,16 @@
         <v>226</v>
       </c>
       <c r="BS9">
-        <v>0.4119318181818182</v>
+        <v>0.41193181818181818</v>
       </c>
       <c r="BT9">
-        <v>0.4119318181818182</v>
+        <v>0.41193181818181818</v>
       </c>
       <c r="BU9">
-        <v>0.4034090909090909</v>
+        <v>0.40340909090909088</v>
       </c>
       <c r="BV9">
-        <v>4.176470588235294</v>
+        <v>4.1764705882352944</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -6588,10 +6640,10 @@
         <v>253</v>
       </c>
       <c r="DC9">
-        <v>0.04545454545454546</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="DD9">
-        <v>0.03693181818181818</v>
+        <v>3.6931818181818177E-2</v>
       </c>
       <c r="DE9">
         <v>2</v>
@@ -6639,52 +6691,52 @@
         <v>34</v>
       </c>
       <c r="DT9">
-        <v>0.2352941176470588</v>
+        <v>0.23529411764705879</v>
       </c>
       <c r="DU9">
-        <v>0.8235294117647058</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="DV9">
         <v>1</v>
       </c>
       <c r="DW9">
-        <v>0.08823529411764706</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="DX9">
         <v>0</v>
       </c>
       <c r="DY9">
-        <v>0.2941176470588235</v>
+        <v>0.29411764705882348</v>
       </c>
       <c r="DZ9">
         <v>0.1764705882352941</v>
       </c>
       <c r="EA9">
-        <v>0.7941176470588235</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="EB9">
-        <v>0.05882352941176471</v>
+        <v>5.8823529411764712E-2</v>
       </c>
       <c r="EC9">
-        <v>0.05882352941176471</v>
+        <v>5.8823529411764712E-2</v>
       </c>
       <c r="ED9">
-        <v>0.08823529411764706</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="EE9">
-        <v>0.05882352941176471</v>
+        <v>5.8823529411764712E-2</v>
       </c>
       <c r="EF9">
-        <v>0.02941176470588235</v>
+        <v>2.9411764705882349E-2</v>
       </c>
       <c r="EG9">
-        <v>0.08823529411764706</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="EH9">
         <v>0.1176470588235294</v>
       </c>
       <c r="EI9">
-        <v>0.2058823529411765</v>
+        <v>0.20588235294117649</v>
       </c>
       <c r="EJ9">
         <v>0.5</v>
@@ -6699,13 +6751,13 @@
         <v>0</v>
       </c>
       <c r="EN9">
-        <v>0.05882352941176471</v>
+        <v>5.8823529411764712E-2</v>
       </c>
       <c r="EO9">
         <v>0.1176470588235294</v>
       </c>
       <c r="EP9">
-        <v>0.02941176470588235</v>
+        <v>2.9411764705882349E-2</v>
       </c>
       <c r="EQ9">
         <v>0.1470588235294118</v>
@@ -6723,13 +6775,13 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="EV9">
-        <v>0.02941176470588235</v>
+        <v>2.9411764705882349E-2</v>
       </c>
       <c r="EW9">
         <v>0</v>
       </c>
       <c r="EX9">
-        <v>0.02941176470588235</v>
+        <v>2.9411764705882349E-2</v>
       </c>
       <c r="EY9">
         <v>352</v>
@@ -6744,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="FC9">
-        <v>0.9943181818181818</v>
+        <v>0.99431818181818177</v>
       </c>
       <c r="FD9">
         <v>0</v>
@@ -6756,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="FG9">
-        <v>0.04545454545454546</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="FH9">
         <v>1</v>
@@ -6765,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="FJ9">
-        <v>0.04545454545454546</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="FK9">
         <v>0</v>
@@ -6786,19 +6838,19 @@
         <v>0</v>
       </c>
       <c r="FQ9">
-        <v>0.9857954545454546</v>
+        <v>0.98579545454545459</v>
       </c>
       <c r="FR9">
-        <v>0.01420454545454545</v>
+        <v>1.4204545454545451E-2</v>
       </c>
       <c r="FS9">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="FT9">
-        <v>28.95954545454546</v>
+        <v>28.959545454545459</v>
       </c>
       <c r="FU9">
-        <v>0.6555661274976213</v>
+        <v>0.65556612749762133</v>
       </c>
       <c r="FV9" t="b">
         <v>0</v>
@@ -6846,10 +6898,10 @@
         <v>22</v>
       </c>
       <c r="GK9">
-        <v>10.35294117647059</v>
+        <v>10.352941176470591</v>
       </c>
       <c r="GL9">
-        <v>0.004757373929590866</v>
+        <v>4.7573739295908657E-3</v>
       </c>
       <c r="GM9">
         <v>0.96484375</v>
@@ -6867,37 +6919,37 @@
         <v>0</v>
       </c>
       <c r="GR9">
-        <v>0.1420454545454546</v>
+        <v>0.14204545454545461</v>
       </c>
       <c r="GS9">
-        <v>0.1789772727272727</v>
+        <v>0.17897727272727271</v>
       </c>
       <c r="GT9">
-        <v>0.1789772727272727</v>
+        <v>0.17897727272727271</v>
       </c>
       <c r="GU9">
         <v>0.1136363636363636</v>
       </c>
       <c r="GV9">
-        <v>0.1392045454545454</v>
+        <v>0.13920454545454539</v>
       </c>
       <c r="GW9">
         <v>0.1306818181818182</v>
       </c>
       <c r="GX9">
-        <v>0.1164772727272727</v>
+        <v>0.11647727272727269</v>
       </c>
       <c r="GY9">
-        <v>0.1370012267561984</v>
+        <v>0.13700122675619841</v>
       </c>
       <c r="GZ9">
-        <v>1.035294117647059</v>
+        <v>1.0352941176470589</v>
       </c>
       <c r="HA9" t="s">
         <v>226</v>
       </c>
       <c r="HB9">
-        <v>0.2926829268292683</v>
+        <v>0.29268292682926828</v>
       </c>
       <c r="HC9">
         <v>1</v>
@@ -6907,6 +6959,11 @@
       </c>
       <c r="HE9">
         <v>0.1150960573611156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:213" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
